--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H2">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N2">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q2">
-        <v>10.33991034084575</v>
+        <v>16.13794813328</v>
       </c>
       <c r="R2">
-        <v>41.359641363383</v>
+        <v>64.55179253312001</v>
       </c>
       <c r="S2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="T2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H3">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q3">
-        <v>0.4129045229423333</v>
+        <v>0.6773705802026666</v>
       </c>
       <c r="R3">
-        <v>2.477427137654</v>
+        <v>4.064223481216</v>
       </c>
       <c r="S3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="T3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H4">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,31 +679,31 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N4">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q4">
-        <v>0.30923778220125</v>
+        <v>0.01784046398933333</v>
       </c>
       <c r="R4">
-        <v>1.236951128805</v>
+        <v>0.107042783936</v>
       </c>
       <c r="S4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="T4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H5">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N5">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q5">
-        <v>6.521448621298334</v>
+        <v>0.128721511248</v>
       </c>
       <c r="R5">
-        <v>39.12869172779</v>
+        <v>0.514886044992</v>
       </c>
       <c r="S5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="T5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H6">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N6">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q6">
-        <v>0.01564501657016667</v>
+        <v>0.05266526028799999</v>
       </c>
       <c r="R6">
-        <v>0.09387009942100001</v>
+        <v>0.315991561728</v>
       </c>
       <c r="S6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="T6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
     </row>
   </sheetData>
